--- a/annuity60fn,premium,reserve,profit.xlsx
+++ b/annuity60fn,premium,reserve,profit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="300" windowWidth="21340" windowHeight="10940" tabRatio="500"/>
+    <workbookView xWindow="5160" yWindow="0" windowWidth="21100" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>t-1V</t>
   </si>
@@ -67,13 +67,19 @@
   </si>
   <si>
     <t>annuity for a 60,Femal,Non smoking</t>
+  </si>
+  <si>
+    <t>* the NPV to be calculated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*the profit margin </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,6 +108,12 @@
       <color indexed="205"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,9 +154,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -494,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="M29" sqref="M29:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -973,12 +986,21 @@
         <v>788.73026000000004</v>
       </c>
     </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="C25:E34">
     <sortCondition descending="1" ref="C25"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
